--- a/brainstorming.xlsx
+++ b/brainstorming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Verilog_Project\LZ77_Encoder_Decoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5BC90F-05C7-4621-9845-A717EECB9046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DC5FF5-CD0E-4E70-8F8B-6B9CE98D485A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7DCA697A-7108-4E3B-8FE8-B9340512EA34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{7DCA697A-7108-4E3B-8FE8-B9340512EA34}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -685,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85AD934E-2F9C-4E1B-8245-E4C48EB8F69A}">
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView topLeftCell="F2" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -797,147 +797,143 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2">
-        <v>2</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" s="6">
-        <v>1</v>
-      </c>
-      <c r="L3" s="3">
-        <v>2</v>
-      </c>
-      <c r="M3" s="3">
-        <v>1</v>
-      </c>
-      <c r="N3" s="3">
-        <v>1</v>
-      </c>
-      <c r="O3" s="3">
-        <v>2</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>2</v>
-      </c>
-      <c r="R3" s="3">
-        <v>1</v>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1">
+        <v>8</v>
+      </c>
+      <c r="K3" s="5">
+        <v>9</v>
+      </c>
+      <c r="L3" s="1">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1">
+        <v>11</v>
+      </c>
+      <c r="N3" s="1">
+        <v>12</v>
+      </c>
+      <c r="O3" s="1">
+        <v>13</v>
+      </c>
+      <c r="P3" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>15</v>
+      </c>
+      <c r="R3" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>2</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="1">
-        <v>8</v>
-      </c>
-      <c r="U4" s="2">
-        <v>1</v>
-      </c>
-      <c r="V4" s="12">
-        <v>2</v>
-      </c>
-      <c r="X4" s="1">
-        <v>8</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="12">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>2</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3">
+        <v>2</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>2</v>
+      </c>
+      <c r="R4" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8">
-        <v>2</v>
-      </c>
-      <c r="E5" s="10">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
         <v>1</v>
       </c>
       <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>2</v>
-      </c>
-      <c r="H5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="H5" s="3">
+        <v>2</v>
+      </c>
       <c r="I5" s="3">
-        <v>2</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J5" s="3"/>
       <c r="K5" s="7"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -948,54 +944,54 @@
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
       <c r="T5" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V5" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X5" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="10">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2</v>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
       </c>
       <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
-        <v>2</v>
-      </c>
-      <c r="I6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="I6" s="3">
+        <v>2</v>
+      </c>
       <c r="J6" s="3">
-        <v>2</v>
-      </c>
-      <c r="K6" s="6">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K6" s="7"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -1005,10 +1001,10 @@
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U6" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V6" s="12">
         <v>1</v>
@@ -1025,35 +1021,35 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="10">
-        <v>1</v>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
       </c>
       <c r="F7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
       </c>
       <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3">
-        <v>2</v>
-      </c>
-      <c r="J7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="J7" s="3">
+        <v>2</v>
+      </c>
       <c r="K7" s="6">
-        <v>2</v>
-      </c>
-      <c r="L7" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -1062,7 +1058,7 @@
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="T7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
@@ -1082,36 +1078,36 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="10">
-        <v>1</v>
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2</v>
       </c>
       <c r="G8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
       </c>
       <c r="I8" s="3">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2</v>
-      </c>
-      <c r="K8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="K8" s="6">
+        <v>2</v>
+      </c>
       <c r="L8" s="3">
-        <v>2</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -1119,7 +1115,7 @@
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
@@ -1139,50 +1135,50 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="10">
-        <v>2</v>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
       </c>
       <c r="I9" s="3">
         <v>1</v>
       </c>
       <c r="J9" s="3">
-        <v>1</v>
-      </c>
-      <c r="K9" s="6">
-        <v>2</v>
-      </c>
-      <c r="L9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>0</v>
       </c>
+      <c r="L9" s="3">
+        <v>2</v>
+      </c>
       <c r="M9" s="3">
-        <v>2</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X9" s="1">
         <v>7</v>
@@ -1196,64 +1192,64 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="8">
-        <v>1</v>
-      </c>
-      <c r="I10" s="8">
-        <v>2</v>
-      </c>
-      <c r="J10" s="8">
-        <v>1</v>
-      </c>
-      <c r="K10" s="9">
-        <v>1</v>
-      </c>
-      <c r="L10" s="8">
-        <v>2</v>
-      </c>
-      <c r="M10" s="10" t="s">
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="10">
+        <v>2</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="6">
+        <v>2</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="M10" s="3">
+        <v>2</v>
+      </c>
       <c r="N10" s="3">
-        <v>2</v>
-      </c>
-      <c r="O10" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U10" s="2">
-        <v>5</v>
-      </c>
-      <c r="V10" s="12" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="V10" s="12">
+        <v>2</v>
       </c>
       <c r="X10" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Y10" s="2">
-        <v>5</v>
-      </c>
-      <c r="Z10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1261,41 +1257,41 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="10">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3">
-        <v>2</v>
-      </c>
-      <c r="K11" s="6">
-        <v>1</v>
-      </c>
-      <c r="L11" s="3">
-        <v>1</v>
-      </c>
-      <c r="M11" s="3">
-        <v>2</v>
-      </c>
-      <c r="N11" s="3" t="s">
+      <c r="H11" s="8">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8">
+        <v>2</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1</v>
+      </c>
+      <c r="K11" s="9">
+        <v>1</v>
+      </c>
+      <c r="L11" s="8">
+        <v>2</v>
+      </c>
+      <c r="M11" s="10" t="s">
         <v>0</v>
       </c>
+      <c r="N11" s="3">
+        <v>2</v>
+      </c>
       <c r="O11" s="3">
-        <v>2</v>
-      </c>
-      <c r="P11" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U11" s="2">
-        <v>0</v>
-      </c>
-      <c r="V11" s="12">
+        <v>5</v>
+      </c>
+      <c r="V11" s="12" t="s">
         <v>1</v>
       </c>
       <c r="X11" s="1">
@@ -1309,6 +1305,9 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1316,41 +1315,41 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="8">
-        <v>1</v>
-      </c>
-      <c r="K12" s="11">
-        <v>2</v>
+      <c r="I12" s="10">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2</v>
+      </c>
+      <c r="K12" s="6">
+        <v>1</v>
       </c>
       <c r="L12" s="3">
         <v>1</v>
       </c>
       <c r="M12" s="3">
-        <v>1</v>
-      </c>
-      <c r="N12" s="3">
-        <v>2</v>
-      </c>
-      <c r="O12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="O12" s="3">
+        <v>2</v>
+      </c>
       <c r="P12" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="1">
+        <v>1</v>
+      </c>
+      <c r="U12" s="2">
         <v>0</v>
       </c>
-      <c r="U12" s="2">
-        <v>1</v>
-      </c>
       <c r="V12" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X12" s="1">
         <v>2</v>
@@ -1359,6 +1358,60 @@
         <v>5</v>
       </c>
       <c r="Z12" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="8">
+        <v>1</v>
+      </c>
+      <c r="K13" s="11">
+        <v>2</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1</v>
+      </c>
+      <c r="N13" s="3">
+        <v>2</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1</v>
+      </c>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
+        <v>1</v>
+      </c>
+      <c r="V13" s="12">
+        <v>2</v>
+      </c>
+      <c r="X13" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z13" s="12" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1377,7 +1430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5056D9FF-E217-4B3B-A291-6512A52A24BC}">
   <dimension ref="B1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>

--- a/brainstorming.xlsx
+++ b/brainstorming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Verilog_Project\LZ77_Encoder_Decoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DC5FF5-CD0E-4E70-8F8B-6B9CE98D485A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2565F9-F5A2-4376-8DBA-CF72CD5E46F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{7DCA697A-7108-4E3B-8FE8-B9340512EA34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{7DCA697A-7108-4E3B-8FE8-B9340512EA34}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>a</t>
   </si>
@@ -177,6 +177,14 @@
   </si>
   <si>
     <t>$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output ind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input ind</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -254,7 +262,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,6 +272,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,7 +329,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -365,6 +385,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -687,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85AD934E-2F9C-4E1B-8245-E4C48EB8F69A}">
   <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -726,6 +755,9 @@
       <c r="R1" s="17"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B2" s="1">
         <v>8</v>
       </c>
@@ -797,6 +829,9 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
@@ -1428,10 +1463,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5056D9FF-E217-4B3B-A291-6512A52A24BC}">
-  <dimension ref="B1:W4"/>
+  <dimension ref="B1:W5"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1576,10 +1611,10 @@
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="18">
+        <v>1</v>
+      </c>
+      <c r="C3" s="19">
         <v>1</v>
       </c>
       <c r="D3" s="2">
@@ -1588,7 +1623,7 @@
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="18">
         <v>1</v>
       </c>
       <c r="G3" s="2">
@@ -1603,40 +1638,40 @@
       <c r="J3" s="2">
         <v>2</v>
       </c>
-      <c r="K3" s="2">
-        <v>1</v>
-      </c>
-      <c r="L3" s="18">
-        <v>1</v>
-      </c>
-      <c r="M3" s="18">
-        <v>2</v>
-      </c>
-      <c r="N3" s="18">
-        <v>1</v>
-      </c>
-      <c r="O3" s="18">
-        <v>1</v>
-      </c>
-      <c r="P3" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="18">
-        <v>1</v>
-      </c>
-      <c r="R3" s="18">
-        <v>1</v>
-      </c>
-      <c r="S3" s="18">
-        <v>2</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="U3" s="2">
-        <v>2</v>
-      </c>
-      <c r="V3" s="2">
+      <c r="K3" s="20">
+        <v>1</v>
+      </c>
+      <c r="L3" s="21">
+        <v>1</v>
+      </c>
+      <c r="M3" s="20">
+        <v>2</v>
+      </c>
+      <c r="N3" s="20">
+        <v>1</v>
+      </c>
+      <c r="O3" s="19">
+        <v>1</v>
+      </c>
+      <c r="P3" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="20">
+        <v>1</v>
+      </c>
+      <c r="R3" s="20">
+        <v>1</v>
+      </c>
+      <c r="S3" s="20">
+        <v>2</v>
+      </c>
+      <c r="T3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" s="20">
+        <v>2</v>
+      </c>
+      <c r="V3" s="20">
         <v>1</v>
       </c>
       <c r="W3" s="2" t="s">
@@ -1644,20 +1679,8 @@
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="F4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -1665,50 +1688,60 @@
       <c r="H4" s="2">
         <v>2</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>1</v>
+      <c r="I4" s="2">
+        <v>3</v>
       </c>
       <c r="J4" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L4" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M4" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N4" s="2">
-        <v>1</v>
-      </c>
-      <c r="O4" s="18">
-        <v>1</v>
-      </c>
-      <c r="P4" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="18">
-        <v>1</v>
-      </c>
-      <c r="R4" s="18">
-        <v>1</v>
-      </c>
-      <c r="S4" s="18">
-        <v>2</v>
-      </c>
-      <c r="T4" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="U4" s="18">
-        <v>2</v>
-      </c>
-      <c r="V4" s="18">
-        <v>1</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="F5" s="2">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2">
+        <v>7</v>
+      </c>
+      <c r="H5" s="2">
+        <v>6</v>
+      </c>
+      <c r="I5" s="2">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2">
+        <v>4</v>
+      </c>
+      <c r="K5" s="2">
+        <v>3</v>
+      </c>
+      <c r="L5" s="2">
+        <v>2</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/brainstorming.xlsx
+++ b/brainstorming.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Verilog_Project\LZ77_Encoder_Decoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2565F9-F5A2-4376-8DBA-CF72CD5E46F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4F0E4B-48AD-4435-AE56-140ADC1F67A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{7DCA697A-7108-4E3B-8FE8-B9340512EA34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{7DCA697A-7108-4E3B-8FE8-B9340512EA34}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -130,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="19">
   <si>
     <t>a</t>
   </si>
@@ -187,12 +188,32 @@
     <t>input ind</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>look ahead buffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -256,6 +277,14 @@
     </font>
     <font>
       <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -329,7 +358,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -394,6 +423,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -716,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85AD934E-2F9C-4E1B-8245-E4C48EB8F69A}">
   <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:R4"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -939,6 +989,13 @@
       <c r="R4" s="3">
         <v>1</v>
       </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1465,8 +1522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5056D9FF-E217-4B3B-A291-6512A52A24BC}">
   <dimension ref="B1:W5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1614,13 +1671,13 @@
       <c r="B3" s="18">
         <v>1</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="20">
         <v>1</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="18">
@@ -1748,4 +1805,605 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCFE333-3291-47AC-8528-F889A36553BC}">
+  <dimension ref="A1:X11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="9" width="3.125" style="2"/>
+    <col min="10" max="10" width="3.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="3.125" style="24"/>
+    <col min="12" max="19" width="3.125" style="2"/>
+    <col min="20" max="20" width="3.125" style="1"/>
+    <col min="21" max="16384" width="3.125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22"/>
+      <c r="B1" s="22">
+        <v>0</v>
+      </c>
+      <c r="C1" s="22">
+        <v>1</v>
+      </c>
+      <c r="D1" s="22">
+        <v>2</v>
+      </c>
+      <c r="E1" s="22">
+        <v>3</v>
+      </c>
+      <c r="F1" s="22">
+        <v>4</v>
+      </c>
+      <c r="G1" s="22">
+        <v>5</v>
+      </c>
+      <c r="H1" s="22">
+        <v>6</v>
+      </c>
+      <c r="I1" s="22">
+        <v>7</v>
+      </c>
+      <c r="J1" s="22">
+        <v>8</v>
+      </c>
+      <c r="K1" s="22">
+        <v>9</v>
+      </c>
+      <c r="L1" s="22">
+        <v>10</v>
+      </c>
+      <c r="M1" s="22">
+        <v>11</v>
+      </c>
+      <c r="N1" s="22">
+        <v>12</v>
+      </c>
+      <c r="O1" s="22">
+        <v>13</v>
+      </c>
+      <c r="P1" s="22">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="22">
+        <v>15</v>
+      </c>
+      <c r="R1" s="22">
+        <v>16</v>
+      </c>
+      <c r="S1" s="22">
+        <v>17</v>
+      </c>
+      <c r="T1" s="22">
+        <v>18</v>
+      </c>
+      <c r="U1" s="22">
+        <v>19</v>
+      </c>
+      <c r="V1" s="22">
+        <v>20</v>
+      </c>
+      <c r="W1" s="22">
+        <v>21</v>
+      </c>
+      <c r="X1" s="22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20">
+        <v>0</v>
+      </c>
+      <c r="D2" s="20">
+        <v>1</v>
+      </c>
+      <c r="E2" s="18">
+        <v>0</v>
+      </c>
+      <c r="F2" s="20">
+        <v>1</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="20">
+        <v>1</v>
+      </c>
+      <c r="I2" s="20">
+        <v>9</v>
+      </c>
+      <c r="J2" s="20">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="20">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="19">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="2">
+        <v>5</v>
+      </c>
+      <c r="S2" s="2">
+        <v>8</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" s="2">
+        <v>1</v>
+      </c>
+      <c r="W2" s="2">
+        <v>1</v>
+      </c>
+      <c r="X2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="27">
+        <v>8</v>
+      </c>
+      <c r="C3" s="27">
+        <v>7</v>
+      </c>
+      <c r="D3" s="27">
+        <v>6</v>
+      </c>
+      <c r="E3" s="27">
+        <v>5</v>
+      </c>
+      <c r="F3" s="27">
+        <v>4</v>
+      </c>
+      <c r="G3" s="27">
+        <v>3</v>
+      </c>
+      <c r="H3" s="27">
+        <v>2</v>
+      </c>
+      <c r="I3" s="27">
+        <v>1</v>
+      </c>
+      <c r="J3" s="27">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K5" s="24">
+        <v>1</v>
+      </c>
+      <c r="L5" s="20">
+        <v>0</v>
+      </c>
+      <c r="M5" s="20">
+        <v>1</v>
+      </c>
+      <c r="N5" s="20">
+        <v>0</v>
+      </c>
+      <c r="O5" s="20">
+        <v>1</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="20">
+        <v>1</v>
+      </c>
+      <c r="R5" s="20">
+        <v>9</v>
+      </c>
+      <c r="S5" s="20"/>
+      <c r="T5" s="1">
+        <v>1</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="20">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="24">
+        <v>0</v>
+      </c>
+      <c r="L6" s="20">
+        <v>1</v>
+      </c>
+      <c r="M6" s="20">
+        <v>0</v>
+      </c>
+      <c r="N6" s="20">
+        <v>1</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="20">
+        <v>9</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>2</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I7" s="21">
+        <v>1</v>
+      </c>
+      <c r="J7" s="21">
+        <v>0</v>
+      </c>
+      <c r="K7" s="28">
+        <v>1</v>
+      </c>
+      <c r="L7" s="21">
+        <v>0</v>
+      </c>
+      <c r="M7" s="21">
+        <v>1</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="20">
+        <v>1</v>
+      </c>
+      <c r="P7" s="20">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="20">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7" s="20"/>
+      <c r="T7" s="1">
+        <v>3</v>
+      </c>
+      <c r="U7" s="2">
+        <v>1</v>
+      </c>
+      <c r="V7" s="2">
+        <v>3</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="E8" s="21">
+        <v>1</v>
+      </c>
+      <c r="F8" s="20">
+        <v>0</v>
+      </c>
+      <c r="G8" s="20">
+        <v>1</v>
+      </c>
+      <c r="H8" s="20">
+        <v>0</v>
+      </c>
+      <c r="I8" s="20">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="28">
+        <v>1</v>
+      </c>
+      <c r="L8" s="20">
+        <v>9</v>
+      </c>
+      <c r="M8" s="20">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="20">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="20">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T8" s="1">
+        <v>4</v>
+      </c>
+      <c r="U8" s="2">
+        <v>5</v>
+      </c>
+      <c r="V8" s="2">
+        <v>1</v>
+      </c>
+      <c r="W8" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C9" s="20">
+        <v>1</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0</v>
+      </c>
+      <c r="E9" s="20">
+        <v>1</v>
+      </c>
+      <c r="F9" s="20">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20">
+        <v>1</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="20">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>9</v>
+      </c>
+      <c r="K9" s="28">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="20">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="20">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T9" s="1">
+        <v>5</v>
+      </c>
+      <c r="U9" s="2">
+        <v>6</v>
+      </c>
+      <c r="V9" s="2">
+        <v>1</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21">
+        <v>0</v>
+      </c>
+      <c r="C10" s="20">
+        <v>1</v>
+      </c>
+      <c r="D10" s="20">
+        <v>0</v>
+      </c>
+      <c r="E10" s="20">
+        <v>1</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="20">
+        <v>1</v>
+      </c>
+      <c r="H10" s="20">
+        <v>9</v>
+      </c>
+      <c r="I10" s="20">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="28">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="20">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>5</v>
+      </c>
+      <c r="R10" s="2">
+        <v>8</v>
+      </c>
+      <c r="T10" s="1">
+        <v>6</v>
+      </c>
+      <c r="U10" s="2">
+        <v>8</v>
+      </c>
+      <c r="V10" s="2">
+        <v>1</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B11" s="20">
+        <v>0</v>
+      </c>
+      <c r="C11" s="21">
+        <v>1</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="20">
+        <v>1</v>
+      </c>
+      <c r="F11" s="20">
+        <v>9</v>
+      </c>
+      <c r="G11" s="20">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="20">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="28">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="2">
+        <v>5</v>
+      </c>
+      <c r="P11" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T11" s="1">
+        <v>7</v>
+      </c>
+      <c r="U11" s="2">
+        <v>7</v>
+      </c>
+      <c r="V11" s="2">
+        <v>1</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="K4:R4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/brainstorming.xlsx
+++ b/brainstorming.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Verilog_Project\LZ77_Encoder_Decoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4F0E4B-48AD-4435-AE56-140ADC1F67A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCE635A-DA36-4F8D-88FE-A1B7C06511C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{7DCA697A-7108-4E3B-8FE8-B9340512EA34}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
-    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
+    <sheet name="img0_enc" sheetId="3" r:id="rId3"/>
+    <sheet name="img0_dec" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -131,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="24">
   <si>
     <t>a</t>
   </si>
@@ -208,12 +209,29 @@
     <t>look ahead buffer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>sb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code_pos</t>
+  </si>
+  <si>
+    <t>code_len</t>
+  </si>
+  <si>
+    <t>chardata</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -290,6 +308,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -358,7 +381,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -444,6 +467,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1809,10 +1838,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCFE333-3291-47AC-8528-F889A36553BC}">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1822,10 +1851,12 @@
     <col min="11" max="11" width="3.125" style="24"/>
     <col min="12" max="19" width="3.125" style="2"/>
     <col min="20" max="20" width="3.125" style="1"/>
-    <col min="21" max="16384" width="3.125" style="2"/>
+    <col min="21" max="25" width="3.125" style="2"/>
+    <col min="26" max="26" width="3.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="3.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
       <c r="B1" s="22">
         <v>0</v>
@@ -1897,7 +1928,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -1968,7 +1999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="27">
         <v>8</v>
@@ -1999,7 +2030,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="20"/>
       <c r="B4" s="23" t="s">
         <v>9</v>
@@ -2023,8 +2054,14 @@
       <c r="Q4" s="26"/>
       <c r="R4" s="26"/>
       <c r="T4" s="2"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="K5" s="24">
         <v>1</v>
       </c>
@@ -2062,8 +2099,14 @@
       <c r="W5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="J6" s="2">
         <v>1</v>
       </c>
@@ -2103,8 +2146,14 @@
       <c r="W6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I7" s="21">
         <v>1</v>
       </c>
@@ -2148,8 +2197,14 @@
       <c r="W7" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E8" s="21">
         <v>1</v>
       </c>
@@ -2204,8 +2259,14 @@
       <c r="W8" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C9" s="20">
         <v>1</v>
       </c>
@@ -2266,8 +2327,14 @@
       <c r="W9" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="B10" s="21">
         <v>0</v>
@@ -2332,8 +2399,14 @@
       <c r="W10" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11" s="20">
         <v>0</v>
       </c>
@@ -2396,6 +2469,12 @@
       </c>
       <c r="W11" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2406,4 +2485,211 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2580E0-CAFB-4689-84EB-89C0522BBF68}">
+  <dimension ref="B1:N10"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="9" style="29"/>
+    <col min="6" max="14" width="3.5" style="29" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="22">
+        <v>8</v>
+      </c>
+      <c r="G1" s="22">
+        <v>7</v>
+      </c>
+      <c r="H1" s="22">
+        <v>6</v>
+      </c>
+      <c r="I1" s="22">
+        <v>5</v>
+      </c>
+      <c r="J1" s="22">
+        <v>4</v>
+      </c>
+      <c r="K1" s="22">
+        <v>3</v>
+      </c>
+      <c r="L1" s="22">
+        <v>2</v>
+      </c>
+      <c r="M1" s="22">
+        <v>1</v>
+      </c>
+      <c r="N1" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="29">
+        <v>0</v>
+      </c>
+      <c r="C2" s="29">
+        <v>0</v>
+      </c>
+      <c r="D2" s="29">
+        <v>1</v>
+      </c>
+      <c r="N2" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="29">
+        <v>0</v>
+      </c>
+      <c r="C3" s="29">
+        <v>0</v>
+      </c>
+      <c r="D3" s="29">
+        <v>0</v>
+      </c>
+      <c r="M3" s="29">
+        <v>1</v>
+      </c>
+      <c r="N3" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="29">
+        <v>1</v>
+      </c>
+      <c r="C4" s="30">
+        <v>3</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="29">
+        <v>1</v>
+      </c>
+      <c r="K4" s="29">
+        <v>0</v>
+      </c>
+      <c r="L4" s="29">
+        <v>1</v>
+      </c>
+      <c r="M4" s="29">
+        <v>0</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="29">
+        <v>5</v>
+      </c>
+      <c r="C5" s="29">
+        <v>1</v>
+      </c>
+      <c r="D5" s="29">
+        <v>9</v>
+      </c>
+      <c r="G5" s="29">
+        <v>1</v>
+      </c>
+      <c r="H5" s="29">
+        <v>0</v>
+      </c>
+      <c r="I5" s="29">
+        <v>1</v>
+      </c>
+      <c r="J5" s="29">
+        <v>0</v>
+      </c>
+      <c r="K5" s="29">
+        <v>1</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="29">
+        <v>1</v>
+      </c>
+      <c r="N5" s="29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="29">
+        <v>6</v>
+      </c>
+      <c r="C6" s="29">
+        <v>1</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="29">
+        <v>8</v>
+      </c>
+      <c r="C7" s="29">
+        <v>1</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="29">
+        <v>7</v>
+      </c>
+      <c r="C8" s="29">
+        <v>1</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="29">
+        <v>7</v>
+      </c>
+      <c r="C9" s="29">
+        <v>1</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="29">
+        <v>0</v>
+      </c>
+      <c r="C10" s="29">
+        <v>0</v>
+      </c>
+      <c r="D10" s="29">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/brainstorming.xlsx
+++ b/brainstorming.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Verilog_Project\LZ77_Encoder_Decoder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Verilog_Project\LZ77_Encoder_Decoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCE635A-DA36-4F8D-88FE-A1B7C06511C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0028B8-855F-490D-8ED7-83DBA2F0A95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{7DCA697A-7108-4E3B-8FE8-B9340512EA34}"/>
+    <workbookView xWindow="1110" yWindow="-120" windowWidth="20610" windowHeight="13740" activeTab="3" xr2:uid="{7DCA697A-7108-4E3B-8FE8-B9340512EA34}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="29">
   <si>
     <t>a</t>
   </si>
@@ -226,12 +226,32 @@
   <si>
     <t>chardata</t>
   </si>
+  <si>
+    <t>0f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_nxt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -313,8 +333,26 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u val="double"/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,6 +374,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,7 +437,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -424,6 +480,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -436,43 +519,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -490,10 +564,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -811,27 +881,27 @@
       <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1697,19 +1767,19 @@
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="18">
-        <v>1</v>
-      </c>
-      <c r="C3" s="20">
+      <c r="B3" s="14">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16">
         <v>1</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="18">
+      <c r="E3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14">
         <v>1</v>
       </c>
       <c r="G3" s="2">
@@ -1724,40 +1794,40 @@
       <c r="J3" s="2">
         <v>2</v>
       </c>
-      <c r="K3" s="20">
-        <v>1</v>
-      </c>
-      <c r="L3" s="21">
-        <v>1</v>
-      </c>
-      <c r="M3" s="20">
-        <v>2</v>
-      </c>
-      <c r="N3" s="20">
-        <v>1</v>
-      </c>
-      <c r="O3" s="19">
-        <v>1</v>
-      </c>
-      <c r="P3" s="20">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="20">
-        <v>1</v>
-      </c>
-      <c r="R3" s="20">
-        <v>1</v>
-      </c>
-      <c r="S3" s="20">
-        <v>2</v>
-      </c>
-      <c r="T3" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="U3" s="20">
-        <v>2</v>
-      </c>
-      <c r="V3" s="20">
+      <c r="K3" s="16">
+        <v>1</v>
+      </c>
+      <c r="L3" s="17">
+        <v>1</v>
+      </c>
+      <c r="M3" s="16">
+        <v>2</v>
+      </c>
+      <c r="N3" s="16">
+        <v>1</v>
+      </c>
+      <c r="O3" s="15">
+        <v>1</v>
+      </c>
+      <c r="P3" s="16">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>1</v>
+      </c>
+      <c r="R3" s="16">
+        <v>1</v>
+      </c>
+      <c r="S3" s="16">
+        <v>2</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" s="16">
+        <v>2</v>
+      </c>
+      <c r="V3" s="16">
         <v>1</v>
       </c>
       <c r="W3" s="2" t="s">
@@ -1792,14 +1862,14 @@
       <c r="N4" s="2">
         <v>8</v>
       </c>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F5" s="2">
@@ -1840,15 +1910,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCFE333-3291-47AC-8528-F889A36553BC}">
   <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="9" width="3.125" style="2"/>
     <col min="10" max="10" width="3.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="3.125" style="24"/>
+    <col min="11" max="11" width="3.125" style="19"/>
     <col min="12" max="19" width="3.125" style="2"/>
     <col min="20" max="20" width="3.125" style="1"/>
     <col min="21" max="25" width="3.125" style="2"/>
@@ -1857,74 +1927,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22">
-        <v>0</v>
-      </c>
-      <c r="C1" s="22">
-        <v>1</v>
-      </c>
-      <c r="D1" s="22">
-        <v>2</v>
-      </c>
-      <c r="E1" s="22">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18">
+        <v>1</v>
+      </c>
+      <c r="D1" s="18">
+        <v>2</v>
+      </c>
+      <c r="E1" s="18">
         <v>3</v>
       </c>
-      <c r="F1" s="22">
+      <c r="F1" s="18">
         <v>4</v>
       </c>
-      <c r="G1" s="22">
+      <c r="G1" s="18">
         <v>5</v>
       </c>
-      <c r="H1" s="22">
+      <c r="H1" s="18">
         <v>6</v>
       </c>
-      <c r="I1" s="22">
+      <c r="I1" s="18">
         <v>7</v>
       </c>
-      <c r="J1" s="22">
+      <c r="J1" s="18">
         <v>8</v>
       </c>
-      <c r="K1" s="22">
+      <c r="K1" s="18">
         <v>9</v>
       </c>
-      <c r="L1" s="22">
+      <c r="L1" s="18">
         <v>10</v>
       </c>
-      <c r="M1" s="22">
+      <c r="M1" s="18">
         <v>11</v>
       </c>
-      <c r="N1" s="22">
+      <c r="N1" s="18">
         <v>12</v>
       </c>
-      <c r="O1" s="22">
+      <c r="O1" s="18">
         <v>13</v>
       </c>
-      <c r="P1" s="22">
+      <c r="P1" s="18">
         <v>14</v>
       </c>
-      <c r="Q1" s="22">
+      <c r="Q1" s="18">
         <v>15</v>
       </c>
-      <c r="R1" s="22">
+      <c r="R1" s="18">
         <v>16</v>
       </c>
-      <c r="S1" s="22">
+      <c r="S1" s="18">
         <v>17</v>
       </c>
-      <c r="T1" s="22">
+      <c r="T1" s="18">
         <v>18</v>
       </c>
-      <c r="U1" s="22">
+      <c r="U1" s="18">
         <v>19</v>
       </c>
-      <c r="V1" s="22">
+      <c r="V1" s="18">
         <v>20</v>
       </c>
-      <c r="W1" s="22">
+      <c r="W1" s="18">
         <v>21</v>
       </c>
-      <c r="X1" s="22">
+      <c r="X1" s="18">
         <v>22</v>
       </c>
     </row>
@@ -1932,40 +2002,40 @@
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="20">
-        <v>0</v>
-      </c>
-      <c r="D2" s="20">
-        <v>1</v>
-      </c>
-      <c r="E2" s="18">
-        <v>0</v>
-      </c>
-      <c r="F2" s="20">
-        <v>1</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="20">
-        <v>1</v>
-      </c>
-      <c r="I2" s="20">
+      <c r="C2" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2" s="16">
+        <v>1</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0</v>
+      </c>
+      <c r="F2" s="16">
+        <v>1</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="16">
+        <v>1</v>
+      </c>
+      <c r="I2" s="16">
         <v>9</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="16">
         <v>0</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="16">
         <v>0</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="19">
+      <c r="N2" s="15">
         <v>1</v>
       </c>
       <c r="O2" s="2" t="s">
@@ -2000,59 +2070,59 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="27">
+      <c r="A3" s="16"/>
+      <c r="B3" s="20">
         <v>8</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="20">
         <v>7</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="20">
         <v>6</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="20">
         <v>5</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="20">
         <v>4</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="20">
         <v>3</v>
       </c>
-      <c r="H3" s="27">
-        <v>2</v>
-      </c>
-      <c r="I3" s="27">
-        <v>1</v>
-      </c>
-      <c r="J3" s="27">
+      <c r="H3" s="20">
+        <v>2</v>
+      </c>
+      <c r="I3" s="20">
+        <v>1</v>
+      </c>
+      <c r="J3" s="20">
         <v>0</v>
       </c>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="23" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="25" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
       <c r="T4" s="2"/>
       <c r="Y4" s="2" t="s">
         <v>19</v>
@@ -2062,38 +2132,38 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="K5" s="24">
-        <v>1</v>
-      </c>
-      <c r="L5" s="20">
-        <v>0</v>
-      </c>
-      <c r="M5" s="20">
-        <v>1</v>
-      </c>
-      <c r="N5" s="20">
-        <v>0</v>
-      </c>
-      <c r="O5" s="20">
-        <v>1</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="20">
-        <v>1</v>
-      </c>
-      <c r="R5" s="20">
+      <c r="K5" s="19">
+        <v>1</v>
+      </c>
+      <c r="L5" s="16">
+        <v>0</v>
+      </c>
+      <c r="M5" s="16">
+        <v>1</v>
+      </c>
+      <c r="N5" s="16">
+        <v>0</v>
+      </c>
+      <c r="O5" s="16">
+        <v>1</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>1</v>
+      </c>
+      <c r="R5" s="16">
         <v>9</v>
       </c>
-      <c r="S5" s="20"/>
+      <c r="S5" s="16"/>
       <c r="T5" s="1">
         <v>1</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
-      <c r="V5" s="20">
+      <c r="V5" s="16">
         <v>0</v>
       </c>
       <c r="W5" s="2">
@@ -2110,25 +2180,25 @@
       <c r="J6" s="2">
         <v>1</v>
       </c>
-      <c r="K6" s="24">
-        <v>0</v>
-      </c>
-      <c r="L6" s="20">
-        <v>1</v>
-      </c>
-      <c r="M6" s="20">
-        <v>0</v>
-      </c>
-      <c r="N6" s="20">
-        <v>1</v>
-      </c>
-      <c r="O6" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="P6" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="20">
+      <c r="K6" s="19">
+        <v>0</v>
+      </c>
+      <c r="L6" s="16">
+        <v>1</v>
+      </c>
+      <c r="M6" s="16">
+        <v>0</v>
+      </c>
+      <c r="N6" s="16">
+        <v>1</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="16">
         <v>9</v>
       </c>
       <c r="R6" s="2">
@@ -2154,37 +2224,37 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="I7" s="21">
-        <v>1</v>
-      </c>
-      <c r="J7" s="21">
-        <v>0</v>
-      </c>
-      <c r="K7" s="28">
-        <v>1</v>
-      </c>
-      <c r="L7" s="21">
-        <v>0</v>
-      </c>
-      <c r="M7" s="21">
-        <v>1</v>
-      </c>
-      <c r="N7" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="O7" s="20">
-        <v>1</v>
-      </c>
-      <c r="P7" s="20">
+      <c r="I7" s="17">
+        <v>1</v>
+      </c>
+      <c r="J7" s="17">
+        <v>0</v>
+      </c>
+      <c r="K7" s="21">
+        <v>1</v>
+      </c>
+      <c r="L7" s="17">
+        <v>0</v>
+      </c>
+      <c r="M7" s="17">
+        <v>1</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="16">
+        <v>1</v>
+      </c>
+      <c r="P7" s="16">
         <v>9</v>
       </c>
-      <c r="Q7" s="20">
+      <c r="Q7" s="16">
         <v>0</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="S7" s="20"/>
+      <c r="S7" s="16"/>
       <c r="T7" s="1">
         <v>3</v>
       </c>
@@ -2205,43 +2275,43 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E8" s="21">
-        <v>1</v>
-      </c>
-      <c r="F8" s="20">
-        <v>0</v>
-      </c>
-      <c r="G8" s="20">
-        <v>1</v>
-      </c>
-      <c r="H8" s="20">
-        <v>0</v>
-      </c>
-      <c r="I8" s="20">
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16">
+        <v>1</v>
+      </c>
+      <c r="H8" s="16">
+        <v>0</v>
+      </c>
+      <c r="I8" s="16">
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="28">
-        <v>1</v>
-      </c>
-      <c r="L8" s="20">
+      <c r="K8" s="21">
+        <v>1</v>
+      </c>
+      <c r="L8" s="16">
         <v>9</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="16">
         <v>0</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="16">
         <v>0</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q8" s="16">
         <v>1</v>
       </c>
       <c r="R8" s="2" t="s">
@@ -2267,43 +2337,43 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C9" s="20">
-        <v>1</v>
-      </c>
-      <c r="D9" s="21">
-        <v>0</v>
-      </c>
-      <c r="E9" s="20">
-        <v>1</v>
-      </c>
-      <c r="F9" s="20">
-        <v>0</v>
-      </c>
-      <c r="G9" s="20">
-        <v>1</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="20">
+      <c r="C9" s="16">
+        <v>1</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
+        <v>1</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0</v>
+      </c>
+      <c r="G9" s="16">
+        <v>1</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="16">
         <v>1</v>
       </c>
       <c r="J9" s="2">
         <v>9</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="21">
         <v>0</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="16">
         <v>0</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="20">
+      <c r="O9" s="16">
         <v>1</v>
       </c>
       <c r="P9" s="2" t="s">
@@ -2335,41 +2405,41 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21">
-        <v>0</v>
-      </c>
-      <c r="C10" s="20">
-        <v>1</v>
-      </c>
-      <c r="D10" s="20">
-        <v>0</v>
-      </c>
-      <c r="E10" s="20">
-        <v>1</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="20">
-        <v>1</v>
-      </c>
-      <c r="H10" s="20">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16">
+        <v>1</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="16">
+        <v>1</v>
+      </c>
+      <c r="H10" s="16">
         <v>9</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="16">
         <v>0</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="21">
         <v>0</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M10" s="16">
         <v>1</v>
       </c>
       <c r="N10" s="2" t="s">
@@ -2407,34 +2477,34 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="20">
-        <v>0</v>
-      </c>
-      <c r="C11" s="21">
-        <v>1</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="20">
-        <v>1</v>
-      </c>
-      <c r="F11" s="20">
+      <c r="B11" s="16">
+        <v>0</v>
+      </c>
+      <c r="C11" s="17">
+        <v>1</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="16">
+        <v>1</v>
+      </c>
+      <c r="F11" s="16">
         <v>9</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="16">
         <v>0</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="16">
         <v>0</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="21">
         <v>1</v>
       </c>
       <c r="L11" s="2" t="s">
@@ -2489,202 +2559,540 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2580E0-CAFB-4689-84EB-89C0522BBF68}">
-  <dimension ref="B1:N10"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9" style="29"/>
-    <col min="6" max="14" width="3.5" style="29" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="29"/>
+    <col min="1" max="1" width="4.25" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9" style="22"/>
+    <col min="6" max="14" width="3.5" style="22" customWidth="1"/>
+    <col min="15" max="15" width="2.625" style="22" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="29" t="s">
+    <row r="1" spans="1:16" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="22">
+      <c r="F1" s="18">
         <v>8</v>
       </c>
-      <c r="G1" s="22">
+      <c r="G1" s="18">
         <v>7</v>
       </c>
-      <c r="H1" s="22">
+      <c r="H1" s="18">
         <v>6</v>
       </c>
-      <c r="I1" s="22">
+      <c r="I1" s="18">
         <v>5</v>
       </c>
-      <c r="J1" s="22">
+      <c r="J1" s="18">
         <v>4</v>
       </c>
-      <c r="K1" s="22">
+      <c r="K1" s="18">
         <v>3</v>
       </c>
-      <c r="L1" s="22">
-        <v>2</v>
-      </c>
-      <c r="M1" s="22">
-        <v>1</v>
-      </c>
-      <c r="N1" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="29">
-        <v>0</v>
-      </c>
-      <c r="C2" s="29">
-        <v>0</v>
-      </c>
-      <c r="D2" s="29">
-        <v>1</v>
-      </c>
-      <c r="N2" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="29">
-        <v>0</v>
-      </c>
-      <c r="C3" s="29">
-        <v>0</v>
-      </c>
-      <c r="D3" s="29">
-        <v>0</v>
-      </c>
-      <c r="M3" s="29">
-        <v>1</v>
-      </c>
-      <c r="N3" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="29">
-        <v>1</v>
-      </c>
-      <c r="C4" s="30">
+      <c r="L1" s="18">
+        <v>2</v>
+      </c>
+      <c r="M1" s="18">
+        <v>1</v>
+      </c>
+      <c r="N1" s="18">
+        <v>0</v>
+      </c>
+      <c r="P1" s="32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22">
+        <v>0</v>
+      </c>
+      <c r="C2" s="22">
+        <v>0</v>
+      </c>
+      <c r="D2" s="22">
+        <v>1</v>
+      </c>
+      <c r="N2" s="22">
+        <v>1</v>
+      </c>
+      <c r="P2" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22">
+        <v>0</v>
+      </c>
+      <c r="C3" s="22">
+        <v>0</v>
+      </c>
+      <c r="D3" s="22">
+        <v>0</v>
+      </c>
+      <c r="M3" s="33">
+        <v>1</v>
+      </c>
+      <c r="N3" s="30">
+        <v>0</v>
+      </c>
+      <c r="P3" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="32">
         <v>3</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="29">
-        <v>1</v>
-      </c>
-      <c r="K4" s="29">
-        <v>0</v>
-      </c>
-      <c r="L4" s="29">
-        <v>1</v>
-      </c>
-      <c r="M4" s="29">
-        <v>0</v>
-      </c>
-      <c r="N4" s="29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="29">
+      <c r="B4" s="22">
+        <v>1</v>
+      </c>
+      <c r="C4" s="31">
+        <v>3</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="30"/>
+      <c r="L4" s="22">
+        <v>1</v>
+      </c>
+      <c r="M4" s="35">
+        <v>0</v>
+      </c>
+      <c r="N4" s="34">
+        <v>1</v>
+      </c>
+      <c r="P4" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="K5" s="22">
+        <v>1</v>
+      </c>
+      <c r="L5" s="22">
+        <v>0</v>
+      </c>
+      <c r="M5" s="36">
+        <v>1</v>
+      </c>
+      <c r="N5" s="22">
+        <v>0</v>
+      </c>
+      <c r="P5" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="32">
         <v>5</v>
       </c>
-      <c r="C5" s="29">
-        <v>1</v>
-      </c>
-      <c r="D5" s="29">
+      <c r="J6" s="22">
+        <v>1</v>
+      </c>
+      <c r="K6" s="22">
+        <v>0</v>
+      </c>
+      <c r="L6" s="22">
+        <v>1</v>
+      </c>
+      <c r="M6" s="22">
+        <v>0</v>
+      </c>
+      <c r="N6" s="22">
+        <v>1</v>
+      </c>
+      <c r="P6" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="32">
+        <v>6</v>
+      </c>
+      <c r="I7" s="22">
+        <v>1</v>
+      </c>
+      <c r="J7" s="22">
+        <v>0</v>
+      </c>
+      <c r="K7" s="22">
+        <v>1</v>
+      </c>
+      <c r="L7" s="22">
+        <v>0</v>
+      </c>
+      <c r="M7" s="22">
+        <v>1</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="32">
+        <v>7</v>
+      </c>
+      <c r="B8" s="22">
+        <v>5</v>
+      </c>
+      <c r="C8" s="22">
+        <v>1</v>
+      </c>
+      <c r="D8" s="22">
         <v>9</v>
       </c>
-      <c r="G5" s="29">
-        <v>1</v>
-      </c>
-      <c r="H5" s="29">
-        <v>0</v>
-      </c>
-      <c r="I5" s="29">
-        <v>1</v>
-      </c>
-      <c r="J5" s="29">
-        <v>0</v>
-      </c>
-      <c r="K5" s="29">
-        <v>1</v>
-      </c>
-      <c r="L5" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" s="29">
-        <v>1</v>
-      </c>
-      <c r="N5" s="29">
+      <c r="H8" s="22">
+        <v>1</v>
+      </c>
+      <c r="I8" s="30">
+        <v>0</v>
+      </c>
+      <c r="J8" s="22">
+        <v>1</v>
+      </c>
+      <c r="K8" s="22">
+        <v>0</v>
+      </c>
+      <c r="L8" s="22">
+        <v>1</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="22">
+        <v>1</v>
+      </c>
+      <c r="P8" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="32">
+        <v>8</v>
+      </c>
+      <c r="G9" s="22">
+        <v>1</v>
+      </c>
+      <c r="H9" s="30">
+        <v>0</v>
+      </c>
+      <c r="I9" s="22">
+        <v>1</v>
+      </c>
+      <c r="J9" s="22">
+        <v>0</v>
+      </c>
+      <c r="K9" s="22">
+        <v>1</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" s="22">
+        <v>1</v>
+      </c>
+      <c r="N9" s="22">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="29">
+      <c r="P9" s="22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="32">
+        <v>9</v>
+      </c>
+      <c r="B10" s="22">
         <v>6</v>
       </c>
-      <c r="C6" s="29">
-        <v>1</v>
-      </c>
-      <c r="D6" s="29" t="s">
+      <c r="C10" s="22">
+        <v>1</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="29">
+      <c r="G10" s="30">
+        <v>0</v>
+      </c>
+      <c r="H10" s="22">
+        <v>1</v>
+      </c>
+      <c r="I10" s="22">
+        <v>0</v>
+      </c>
+      <c r="J10" s="22">
+        <v>1</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="22">
+        <v>1</v>
+      </c>
+      <c r="M10" s="22">
+        <v>9</v>
+      </c>
+      <c r="N10" s="22">
+        <v>0</v>
+      </c>
+      <c r="P10" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="32">
+        <v>10</v>
+      </c>
+      <c r="F11" s="30">
+        <v>0</v>
+      </c>
+      <c r="G11" s="22">
+        <v>1</v>
+      </c>
+      <c r="H11" s="22">
+        <v>0</v>
+      </c>
+      <c r="I11" s="22">
+        <v>1</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="22">
+        <v>1</v>
+      </c>
+      <c r="L11" s="22">
+        <v>9</v>
+      </c>
+      <c r="M11" s="22">
+        <v>0</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="32">
+        <v>11</v>
+      </c>
+      <c r="B12" s="22">
         <v>8</v>
       </c>
-      <c r="C7" s="29">
-        <v>1</v>
-      </c>
-      <c r="D7" s="29" t="s">
+      <c r="C12" s="22">
+        <v>1</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="29">
+      <c r="F12" s="22">
+        <v>0</v>
+      </c>
+      <c r="G12" s="30">
+        <v>1</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="22">
+        <v>1</v>
+      </c>
+      <c r="J12" s="22">
+        <v>9</v>
+      </c>
+      <c r="K12" s="22">
+        <v>0</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="22">
+        <v>0</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="32">
+        <v>12</v>
+      </c>
+      <c r="B13" s="22">
         <v>7</v>
       </c>
-      <c r="C8" s="29">
-        <v>1</v>
-      </c>
-      <c r="D8" s="29" t="s">
+      <c r="C13" s="22">
+        <v>1</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="29">
+      <c r="F13" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="30">
+        <v>1</v>
+      </c>
+      <c r="H13" s="22">
+        <v>9</v>
+      </c>
+      <c r="I13" s="22">
+        <v>0</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="22">
+        <v>0</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="22">
+        <v>1</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="32">
+        <v>13</v>
+      </c>
+      <c r="B14" s="22">
         <v>7</v>
       </c>
-      <c r="C9" s="29">
-        <v>1</v>
-      </c>
-      <c r="D9" s="29" t="s">
+      <c r="C14" s="22">
+        <v>1</v>
+      </c>
+      <c r="D14" s="22" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="29">
-        <v>0</v>
-      </c>
-      <c r="C10" s="29">
-        <v>0</v>
-      </c>
-      <c r="D10" s="29">
+      <c r="F14" s="22">
+        <v>9</v>
+      </c>
+      <c r="G14" s="22">
+        <v>0</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="22">
+        <v>0</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="22">
+        <v>1</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="22">
+        <v>1</v>
+      </c>
+      <c r="N14" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="P14" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="32">
+        <v>14</v>
+      </c>
+      <c r="B15" s="22">
+        <v>0</v>
+      </c>
+      <c r="C15" s="22">
+        <v>0</v>
+      </c>
+      <c r="D15" s="22">
         <v>5</v>
+      </c>
+      <c r="F15" s="22">
+        <v>0</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="22">
+        <v>0</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="22">
+        <v>1</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="22">
+        <v>1</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="22">
+        <v>5</v>
+      </c>
+      <c r="P15" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="32">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/brainstorming.xlsx
+++ b/brainstorming.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Verilog_Project\LZ77_Encoder_Decoder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Verilog_Project\LZ77_Encoder_Decoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0028B8-855F-490D-8ED7-83DBA2F0A95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3BD9E5-1417-406B-BFEA-94BD7D4DE48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="-120" windowWidth="20610" windowHeight="13740" activeTab="3" xr2:uid="{7DCA697A-7108-4E3B-8FE8-B9340512EA34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{7DCA697A-7108-4E3B-8FE8-B9340512EA34}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="myimg_enc" sheetId="5" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
     <sheet name="img0_enc" sheetId="3" r:id="rId3"/>
     <sheet name="img0_dec" sheetId="4" r:id="rId4"/>
@@ -43,7 +43,7 @@
     <author>溫梓傑</author>
   </authors>
   <commentList>
-    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{3BBFCE7D-FE1E-41E2-928C-6EEAA20BDCD7}">
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{C6817FA6-68D8-449D-8A5C-15B77501E456}">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{41F7DF48-C443-459A-8C06-BDC84FF43C1A}">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{2DA9C126-5693-491A-8C51-88DDF4A2010D}">
       <text>
         <r>
           <rPr>
@@ -71,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{0108D305-88C5-478E-AA22-6F983DDDA973}">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{07E8E3E4-EF7C-434C-9667-70420785E268}">
       <text>
         <r>
           <rPr>
@@ -85,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{E05E40D4-73B9-4EE1-96F0-A9E8249364E8}">
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{A30CFDEE-138D-4EE3-9A4D-BCD252465038}">
       <text>
         <r>
           <rPr>
@@ -99,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{D56F0751-29CE-4CFA-AF72-1A115DB72E7D}">
+    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{554C465D-E394-418E-9B71-EDEFB4DF7821}">
       <text>
         <r>
           <rPr>
@@ -113,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{DB6E7E43-2AC4-461B-AE42-29E064EFF5E3}">
+    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{80E1B0C0-138B-4B14-B560-D240175E7302}">
       <text>
         <r>
           <rPr>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="30">
   <si>
     <t>a</t>
   </si>
@@ -246,12 +246,134 @@
     <t>char_nxt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>match_len</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>至多為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，有以下兩個原因</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+(1) match_len</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>只有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">3bit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>至多到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>7
+(2) lookahead buffer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>只有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">8bit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>也就是至多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>match 7bit + char_nxt 1bit</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -351,6 +473,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -437,7 +572,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -453,9 +588,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -510,6 +642,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -528,26 +687,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -862,181 +1006,191 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85AD934E-2F9C-4E1B-8245-E4C48EB8F69A}">
-  <dimension ref="A1:Z13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE5C48B-1864-431A-A071-8A930E990131}">
+  <dimension ref="A1:AD13"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="Z4" sqref="Z4"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
-    <col min="2" max="10" width="3.375" style="1"/>
-    <col min="11" max="11" width="3.375" style="5"/>
-    <col min="12" max="16384" width="3.375" style="1"/>
+    <col min="1" max="1" width="12.75" style="22" customWidth="1"/>
+    <col min="2" max="10" width="3.375" style="22"/>
+    <col min="11" max="11" width="3.375" style="23"/>
+    <col min="12" max="16384" width="3.375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:30" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="T1" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="19"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="22">
         <v>8</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="22">
         <v>7</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="22">
         <v>6</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="22">
         <v>5</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="22">
         <v>4</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="22">
         <v>3</v>
       </c>
-      <c r="H2" s="1">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5">
+      <c r="H2" s="22">
+        <v>2</v>
+      </c>
+      <c r="I2" s="22">
+        <v>1</v>
+      </c>
+      <c r="J2" s="22">
+        <v>0</v>
+      </c>
+      <c r="K2" s="23">
         <v>-1</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="22">
         <v>-2</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="22">
         <v>-3</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="22">
         <v>-4</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="22">
         <v>-5</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="22">
         <v>-6</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="22">
         <v>-7</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="22">
         <v>-8</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="1" t="s">
+      <c r="X2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="B3" s="22">
+        <v>0</v>
+      </c>
+      <c r="C3" s="22">
+        <v>1</v>
+      </c>
+      <c r="D3" s="22">
+        <v>2</v>
+      </c>
+      <c r="E3" s="22">
         <v>3</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="22">
         <v>4</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="22">
         <v>5</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="22">
         <v>6</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="22">
         <v>7</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="22">
         <v>8</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="23">
         <v>9</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="22">
         <v>10</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="22">
         <v>11</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="22">
         <v>12</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="22">
         <v>13</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="22">
         <v>14</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="22">
         <v>15</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="22">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -1064,7 +1218,7 @@
       <c r="J4" s="2">
         <v>1</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>1</v>
       </c>
       <c r="L4" s="3">
@@ -1085,10 +1239,10 @@
       <c r="Q4" s="3">
         <v>2</v>
       </c>
-      <c r="R4" s="3">
-        <v>1</v>
-      </c>
-      <c r="X4" s="1">
+      <c r="R4" s="21">
+        <v>1</v>
+      </c>
+      <c r="X4" s="22">
         <v>0</v>
       </c>
       <c r="Y4" s="2">
@@ -1096,14 +1250,14 @@
       </c>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
         <v>2</v>
       </c>
       <c r="D5" s="3">
@@ -1121,11 +1275,9 @@
       <c r="H5" s="3">
         <v>2</v>
       </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
+      <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="7"/>
+      <c r="K5" s="6"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -1134,37 +1286,37 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
-      <c r="T5" s="1">
+      <c r="T5" s="22">
         <v>8</v>
       </c>
       <c r="U5" s="2">
         <v>1</v>
       </c>
-      <c r="V5" s="12">
-        <v>2</v>
-      </c>
-      <c r="X5" s="1">
+      <c r="V5" s="11">
+        <v>2</v>
+      </c>
+      <c r="X5" s="22">
         <v>8</v>
       </c>
       <c r="Y5" s="2">
         <v>1</v>
       </c>
-      <c r="Z5" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>3</v>
+      <c r="Z5" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>2</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8">
-        <v>2</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2</v>
+      </c>
+      <c r="E6" s="9">
         <v>1</v>
       </c>
       <c r="F6" s="3">
@@ -1179,10 +1331,8 @@
       <c r="I6" s="3">
         <v>2</v>
       </c>
-      <c r="J6" s="3">
-        <v>1</v>
-      </c>
-      <c r="K6" s="7"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="6"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -1191,32 +1341,32 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
-      <c r="T6" s="1">
+      <c r="T6" s="22">
         <v>7</v>
       </c>
       <c r="U6" s="2">
         <v>2</v>
       </c>
-      <c r="V6" s="12">
-        <v>1</v>
-      </c>
-      <c r="X6" s="1">
+      <c r="V6" s="11">
+        <v>1</v>
+      </c>
+      <c r="X6" s="22">
         <v>7</v>
       </c>
       <c r="Y6" s="2">
         <v>2</v>
       </c>
-      <c r="Z6" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>4</v>
+      <c r="Z6" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>3</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>1</v>
       </c>
       <c r="E7" s="3">
@@ -1237,9 +1387,7 @@
       <c r="J7" s="3">
         <v>2</v>
       </c>
-      <c r="K7" s="6">
-        <v>1</v>
-      </c>
+      <c r="K7" s="5"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -1248,33 +1396,33 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
-      <c r="T7" s="1">
+      <c r="T7" s="22">
         <v>6</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
-      <c r="V7" s="12">
-        <v>1</v>
-      </c>
-      <c r="X7" s="1">
+      <c r="V7" s="11">
+        <v>1</v>
+      </c>
+      <c r="X7" s="22">
         <v>7</v>
       </c>
       <c r="Y7" s="2">
         <v>2</v>
       </c>
-      <c r="Z7" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>5</v>
+      <c r="Z7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>4</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>1</v>
       </c>
       <c r="F8" s="3">
@@ -1292,12 +1440,10 @@
       <c r="J8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K8" s="6">
-        <v>2</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1</v>
-      </c>
+      <c r="K8" s="5">
+        <v>2</v>
+      </c>
+      <c r="L8" s="3"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -1305,34 +1451,34 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="1">
+      <c r="T8" s="22">
         <v>5</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
-      <c r="V8" s="12">
-        <v>1</v>
-      </c>
-      <c r="X8" s="1">
+      <c r="V8" s="11">
+        <v>1</v>
+      </c>
+      <c r="X8" s="22">
         <v>7</v>
       </c>
       <c r="Y8" s="2">
         <v>2</v>
       </c>
-      <c r="Z8" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>6</v>
+      <c r="Z8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>5</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>1</v>
       </c>
       <c r="G9" s="3">
@@ -1347,53 +1493,51 @@
       <c r="J9" s="3">
         <v>2</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="L9" s="3">
         <v>2</v>
       </c>
-      <c r="M9" s="3">
-        <v>1</v>
-      </c>
+      <c r="M9" s="3"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="1">
+      <c r="T9" s="22">
         <v>4</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
-      <c r="V9" s="12">
-        <v>1</v>
-      </c>
-      <c r="X9" s="1">
+      <c r="V9" s="11">
+        <v>1</v>
+      </c>
+      <c r="X9" s="22">
         <v>7</v>
       </c>
       <c r="Y9" s="2">
         <v>2</v>
       </c>
-      <c r="Z9" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>7</v>
+      <c r="Z9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
+        <v>6</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="8">
-        <v>1</v>
-      </c>
-      <c r="H10" s="10">
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9">
         <v>2</v>
       </c>
       <c r="I10" s="3">
@@ -1402,7 +1546,7 @@
       <c r="J10" s="3">
         <v>1</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>2</v>
       </c>
       <c r="L10" s="3" t="s">
@@ -1411,36 +1555,34 @@
       <c r="M10" s="3">
         <v>2</v>
       </c>
-      <c r="N10" s="3">
-        <v>1</v>
-      </c>
+      <c r="N10" s="3"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="1">
+      <c r="T10" s="22">
         <v>3</v>
       </c>
       <c r="U10" s="2">
         <v>1</v>
       </c>
-      <c r="V10" s="12">
-        <v>2</v>
-      </c>
-      <c r="X10" s="1">
+      <c r="V10" s="11">
+        <v>2</v>
+      </c>
+      <c r="X10" s="22">
         <v>7</v>
       </c>
       <c r="Y10" s="2">
         <v>2</v>
       </c>
-      <c r="Z10" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>8</v>
+      <c r="Z10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>7</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1448,56 +1590,54 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="8">
-        <v>1</v>
-      </c>
-      <c r="I11" s="8">
-        <v>2</v>
-      </c>
-      <c r="J11" s="8">
-        <v>1</v>
-      </c>
-      <c r="K11" s="9">
-        <v>1</v>
-      </c>
-      <c r="L11" s="8">
-        <v>2</v>
-      </c>
-      <c r="M11" s="10" t="s">
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
+      <c r="K11" s="8">
+        <v>1</v>
+      </c>
+      <c r="L11" s="7">
+        <v>2</v>
+      </c>
+      <c r="M11" s="9" t="s">
         <v>0</v>
       </c>
       <c r="N11" s="3">
         <v>2</v>
       </c>
-      <c r="O11" s="3">
-        <v>1</v>
-      </c>
+      <c r="O11" s="3"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="1">
+      <c r="T11" s="22">
         <v>2</v>
       </c>
       <c r="U11" s="2">
         <v>5</v>
       </c>
-      <c r="V11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="X11" s="1">
+      <c r="V11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="X11" s="22">
         <v>2</v>
       </c>
       <c r="Y11" s="2">
         <v>5</v>
       </c>
-      <c r="Z11" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>9</v>
+      <c r="Z11" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
+        <v>8</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1506,13 +1646,13 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="10">
+      <c r="I12" s="9">
         <v>1</v>
       </c>
       <c r="J12" s="3">
         <v>2</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>1</v>
       </c>
       <c r="L12" s="3">
@@ -1527,32 +1667,33 @@
       <c r="O12" s="3">
         <v>2</v>
       </c>
-      <c r="P12" s="3">
-        <v>1</v>
-      </c>
+      <c r="P12" s="3"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="1">
+      <c r="T12" s="22">
         <v>1</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
-      <c r="V12" s="12">
-        <v>1</v>
-      </c>
-      <c r="X12" s="1">
+      <c r="V12" s="11">
+        <v>1</v>
+      </c>
+      <c r="X12" s="22">
         <v>2</v>
       </c>
       <c r="Y12" s="2">
         <v>5</v>
       </c>
-      <c r="Z12" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z12" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>9</v>
+      </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1561,10 +1702,10 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="8">
-        <v>1</v>
-      </c>
-      <c r="K13" s="11">
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
+      <c r="K13" s="10">
         <v>2</v>
       </c>
       <c r="L13" s="3">
@@ -1582,38 +1723,38 @@
       <c r="P13" s="3">
         <v>2</v>
       </c>
-      <c r="Q13" s="3">
-        <v>1</v>
-      </c>
+      <c r="Q13" s="3"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="1">
+      <c r="T13" s="22">
         <v>0</v>
       </c>
       <c r="U13" s="2">
         <v>1</v>
       </c>
-      <c r="V13" s="12">
-        <v>2</v>
-      </c>
-      <c r="X13" s="1">
+      <c r="V13" s="11">
+        <v>2</v>
+      </c>
+      <c r="X13" s="22">
         <v>2</v>
       </c>
       <c r="Y13" s="2">
         <v>5</v>
       </c>
-      <c r="Z13" s="12" t="s">
+      <c r="Z13" s="11" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="K1:R1"/>
+    <mergeCell ref="T1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1767,19 +1908,19 @@
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="14">
-        <v>1</v>
-      </c>
-      <c r="C3" s="16">
+      <c r="B3" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15">
         <v>1</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="14">
+      <c r="E3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13">
         <v>1</v>
       </c>
       <c r="G3" s="2">
@@ -1794,40 +1935,40 @@
       <c r="J3" s="2">
         <v>2</v>
       </c>
-      <c r="K3" s="16">
-        <v>1</v>
-      </c>
-      <c r="L3" s="17">
-        <v>1</v>
-      </c>
-      <c r="M3" s="16">
-        <v>2</v>
-      </c>
-      <c r="N3" s="16">
-        <v>1</v>
-      </c>
-      <c r="O3" s="15">
-        <v>1</v>
-      </c>
-      <c r="P3" s="16">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="16">
-        <v>1</v>
-      </c>
-      <c r="R3" s="16">
-        <v>1</v>
-      </c>
-      <c r="S3" s="16">
-        <v>2</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="U3" s="16">
-        <v>2</v>
-      </c>
-      <c r="V3" s="16">
+      <c r="K3" s="15">
+        <v>1</v>
+      </c>
+      <c r="L3" s="16">
+        <v>1</v>
+      </c>
+      <c r="M3" s="15">
+        <v>2</v>
+      </c>
+      <c r="N3" s="15">
+        <v>1</v>
+      </c>
+      <c r="O3" s="14">
+        <v>1</v>
+      </c>
+      <c r="P3" s="15">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>1</v>
+      </c>
+      <c r="R3" s="15">
+        <v>1</v>
+      </c>
+      <c r="S3" s="15">
+        <v>2</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" s="15">
+        <v>2</v>
+      </c>
+      <c r="V3" s="15">
         <v>1</v>
       </c>
       <c r="W3" s="2" t="s">
@@ -1862,14 +2003,14 @@
       <c r="N4" s="2">
         <v>8</v>
       </c>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F5" s="2">
@@ -1918,7 +2059,7 @@
   <cols>
     <col min="1" max="9" width="3.125" style="2"/>
     <col min="10" max="10" width="3.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="3.125" style="19"/>
+    <col min="11" max="11" width="3.125" style="18"/>
     <col min="12" max="19" width="3.125" style="2"/>
     <col min="20" max="20" width="3.125" style="1"/>
     <col min="21" max="25" width="3.125" style="2"/>
@@ -1927,74 +2068,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18">
-        <v>0</v>
-      </c>
-      <c r="C1" s="18">
-        <v>1</v>
-      </c>
-      <c r="D1" s="18">
-        <v>2</v>
-      </c>
-      <c r="E1" s="18">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17">
+        <v>0</v>
+      </c>
+      <c r="C1" s="17">
+        <v>1</v>
+      </c>
+      <c r="D1" s="17">
+        <v>2</v>
+      </c>
+      <c r="E1" s="17">
         <v>3</v>
       </c>
-      <c r="F1" s="18">
+      <c r="F1" s="17">
         <v>4</v>
       </c>
-      <c r="G1" s="18">
+      <c r="G1" s="17">
         <v>5</v>
       </c>
-      <c r="H1" s="18">
+      <c r="H1" s="17">
         <v>6</v>
       </c>
-      <c r="I1" s="18">
+      <c r="I1" s="17">
         <v>7</v>
       </c>
-      <c r="J1" s="18">
+      <c r="J1" s="17">
         <v>8</v>
       </c>
-      <c r="K1" s="18">
+      <c r="K1" s="17">
         <v>9</v>
       </c>
-      <c r="L1" s="18">
+      <c r="L1" s="17">
         <v>10</v>
       </c>
-      <c r="M1" s="18">
+      <c r="M1" s="17">
         <v>11</v>
       </c>
-      <c r="N1" s="18">
+      <c r="N1" s="17">
         <v>12</v>
       </c>
-      <c r="O1" s="18">
+      <c r="O1" s="17">
         <v>13</v>
       </c>
-      <c r="P1" s="18">
+      <c r="P1" s="17">
         <v>14</v>
       </c>
-      <c r="Q1" s="18">
+      <c r="Q1" s="17">
         <v>15</v>
       </c>
-      <c r="R1" s="18">
+      <c r="R1" s="17">
         <v>16</v>
       </c>
-      <c r="S1" s="18">
+      <c r="S1" s="17">
         <v>17</v>
       </c>
-      <c r="T1" s="18">
+      <c r="T1" s="17">
         <v>18</v>
       </c>
-      <c r="U1" s="18">
+      <c r="U1" s="17">
         <v>19</v>
       </c>
-      <c r="V1" s="18">
+      <c r="V1" s="17">
         <v>20</v>
       </c>
-      <c r="W1" s="18">
+      <c r="W1" s="17">
         <v>21</v>
       </c>
-      <c r="X1" s="18">
+      <c r="X1" s="17">
         <v>22</v>
       </c>
     </row>
@@ -2002,40 +2143,40 @@
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="16">
-        <v>0</v>
-      </c>
-      <c r="D2" s="16">
-        <v>1</v>
-      </c>
-      <c r="E2" s="14">
-        <v>0</v>
-      </c>
-      <c r="F2" s="16">
-        <v>1</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="16">
-        <v>1</v>
-      </c>
-      <c r="I2" s="16">
+      <c r="C2" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2" s="15">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0</v>
+      </c>
+      <c r="F2" s="15">
+        <v>1</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="15">
+        <v>1</v>
+      </c>
+      <c r="I2" s="15">
         <v>9</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="15">
         <v>0</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="16">
+      <c r="L2" s="15">
         <v>0</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2" s="14">
         <v>1</v>
       </c>
       <c r="O2" s="2" t="s">
@@ -2070,59 +2211,59 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="20">
+      <c r="A3" s="15"/>
+      <c r="B3" s="19">
         <v>8</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>7</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <v>6</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <v>5</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <v>4</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="19">
         <v>3</v>
       </c>
-      <c r="H3" s="20">
-        <v>2</v>
-      </c>
-      <c r="I3" s="20">
-        <v>1</v>
-      </c>
-      <c r="J3" s="20">
+      <c r="H3" s="19">
+        <v>2</v>
+      </c>
+      <c r="I3" s="19">
+        <v>1</v>
+      </c>
+      <c r="J3" s="19">
         <v>0</v>
       </c>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="28" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
       <c r="T4" s="2"/>
       <c r="Y4" s="2" t="s">
         <v>19</v>
@@ -2132,38 +2273,38 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="K5" s="19">
-        <v>1</v>
-      </c>
-      <c r="L5" s="16">
-        <v>0</v>
-      </c>
-      <c r="M5" s="16">
-        <v>1</v>
-      </c>
-      <c r="N5" s="16">
-        <v>0</v>
-      </c>
-      <c r="O5" s="16">
-        <v>1</v>
-      </c>
-      <c r="P5" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="16">
-        <v>1</v>
-      </c>
-      <c r="R5" s="16">
+      <c r="K5" s="18">
+        <v>1</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0</v>
+      </c>
+      <c r="M5" s="15">
+        <v>1</v>
+      </c>
+      <c r="N5" s="15">
+        <v>0</v>
+      </c>
+      <c r="O5" s="15">
+        <v>1</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>1</v>
+      </c>
+      <c r="R5" s="15">
         <v>9</v>
       </c>
-      <c r="S5" s="16"/>
+      <c r="S5" s="15"/>
       <c r="T5" s="1">
         <v>1</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
-      <c r="V5" s="16">
+      <c r="V5" s="15">
         <v>0</v>
       </c>
       <c r="W5" s="2">
@@ -2180,25 +2321,25 @@
       <c r="J6" s="2">
         <v>1</v>
       </c>
-      <c r="K6" s="19">
-        <v>0</v>
-      </c>
-      <c r="L6" s="16">
-        <v>1</v>
-      </c>
-      <c r="M6" s="16">
-        <v>0</v>
-      </c>
-      <c r="N6" s="16">
-        <v>1</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="P6" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="16">
+      <c r="K6" s="18">
+        <v>0</v>
+      </c>
+      <c r="L6" s="15">
+        <v>1</v>
+      </c>
+      <c r="M6" s="15">
+        <v>0</v>
+      </c>
+      <c r="N6" s="15">
+        <v>1</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="15">
         <v>9</v>
       </c>
       <c r="R6" s="2">
@@ -2224,37 +2365,37 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="I7" s="17">
-        <v>1</v>
-      </c>
-      <c r="J7" s="17">
-        <v>0</v>
-      </c>
-      <c r="K7" s="21">
-        <v>1</v>
-      </c>
-      <c r="L7" s="17">
-        <v>0</v>
-      </c>
-      <c r="M7" s="17">
-        <v>1</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="O7" s="16">
-        <v>1</v>
-      </c>
-      <c r="P7" s="16">
+      <c r="I7" s="16">
+        <v>1</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0</v>
+      </c>
+      <c r="K7" s="20">
+        <v>1</v>
+      </c>
+      <c r="L7" s="16">
+        <v>0</v>
+      </c>
+      <c r="M7" s="16">
+        <v>1</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="15">
+        <v>1</v>
+      </c>
+      <c r="P7" s="15">
         <v>9</v>
       </c>
-      <c r="Q7" s="16">
+      <c r="Q7" s="15">
         <v>0</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="S7" s="16"/>
+      <c r="S7" s="15"/>
       <c r="T7" s="1">
         <v>3</v>
       </c>
@@ -2275,43 +2416,43 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E8" s="17">
-        <v>1</v>
-      </c>
-      <c r="F8" s="16">
-        <v>0</v>
-      </c>
-      <c r="G8" s="16">
-        <v>1</v>
-      </c>
-      <c r="H8" s="16">
-        <v>0</v>
-      </c>
-      <c r="I8" s="16">
+      <c r="E8" s="16">
+        <v>1</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
+        <v>1</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0</v>
+      </c>
+      <c r="I8" s="15">
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="21">
-        <v>1</v>
-      </c>
-      <c r="L8" s="16">
+      <c r="K8" s="20">
+        <v>1</v>
+      </c>
+      <c r="L8" s="15">
         <v>9</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="15">
         <v>0</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="15">
         <v>0</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q8" s="16">
+      <c r="Q8" s="15">
         <v>1</v>
       </c>
       <c r="R8" s="2" t="s">
@@ -2337,43 +2478,43 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C9" s="16">
-        <v>1</v>
-      </c>
-      <c r="D9" s="17">
-        <v>0</v>
-      </c>
-      <c r="E9" s="16">
-        <v>1</v>
-      </c>
-      <c r="F9" s="16">
-        <v>0</v>
-      </c>
-      <c r="G9" s="16">
-        <v>1</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="16">
+      <c r="C9" s="15">
+        <v>1</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
+        <v>1</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
+        <v>1</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="15">
         <v>1</v>
       </c>
       <c r="J9" s="2">
         <v>9</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="20">
         <v>0</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="15">
         <v>0</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="15">
         <v>1</v>
       </c>
       <c r="P9" s="2" t="s">
@@ -2405,41 +2546,41 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17">
-        <v>0</v>
-      </c>
-      <c r="C10" s="16">
-        <v>1</v>
-      </c>
-      <c r="D10" s="16">
-        <v>0</v>
-      </c>
-      <c r="E10" s="16">
-        <v>1</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="16">
-        <v>1</v>
-      </c>
-      <c r="H10" s="16">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16">
+        <v>0</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15">
+        <v>1</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="15">
+        <v>1</v>
+      </c>
+      <c r="H10" s="15">
         <v>9</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="15">
         <v>0</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="20">
         <v>0</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="15">
         <v>1</v>
       </c>
       <c r="N10" s="2" t="s">
@@ -2477,34 +2618,34 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="16">
-        <v>0</v>
-      </c>
-      <c r="C11" s="17">
-        <v>1</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="16">
-        <v>1</v>
-      </c>
-      <c r="F11" s="16">
+      <c r="B11" s="15">
+        <v>0</v>
+      </c>
+      <c r="C11" s="16">
+        <v>1</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="15">
+        <v>1</v>
+      </c>
+      <c r="F11" s="15">
         <v>9</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <v>0</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="15">
         <v>0</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="20">
         <v>1</v>
       </c>
       <c r="L11" s="2" t="s">
@@ -2561,537 +2702,537 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2580E0-CAFB-4689-84EB-89C0522BBF68}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.25" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9" style="22"/>
-    <col min="6" max="14" width="3.5" style="22" customWidth="1"/>
-    <col min="15" max="15" width="2.625" style="22" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="22"/>
+    <col min="1" max="1" width="4.25" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9" style="21"/>
+    <col min="6" max="14" width="3.5" style="21" customWidth="1"/>
+    <col min="15" max="15" width="2.625" style="21" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="18">
+      <c r="F1" s="17">
         <v>8</v>
       </c>
-      <c r="G1" s="18">
+      <c r="G1" s="17">
         <v>7</v>
       </c>
-      <c r="H1" s="18">
+      <c r="H1" s="17">
         <v>6</v>
       </c>
-      <c r="I1" s="18">
+      <c r="I1" s="17">
         <v>5</v>
       </c>
-      <c r="J1" s="18">
+      <c r="J1" s="17">
         <v>4</v>
       </c>
-      <c r="K1" s="18">
+      <c r="K1" s="17">
         <v>3</v>
       </c>
-      <c r="L1" s="18">
-        <v>2</v>
-      </c>
-      <c r="M1" s="18">
-        <v>1</v>
-      </c>
-      <c r="N1" s="18">
-        <v>0</v>
-      </c>
-      <c r="P1" s="32" t="s">
+      <c r="L1" s="17">
+        <v>2</v>
+      </c>
+      <c r="M1" s="17">
+        <v>1</v>
+      </c>
+      <c r="N1" s="17">
+        <v>0</v>
+      </c>
+      <c r="P1" s="26" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="32">
-        <v>1</v>
-      </c>
-      <c r="B2" s="22">
-        <v>0</v>
-      </c>
-      <c r="C2" s="22">
-        <v>0</v>
-      </c>
-      <c r="D2" s="22">
-        <v>1</v>
-      </c>
-      <c r="N2" s="22">
-        <v>1</v>
-      </c>
-      <c r="P2" s="22">
+      <c r="A2" s="26">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <v>1</v>
+      </c>
+      <c r="N2" s="21">
+        <v>1</v>
+      </c>
+      <c r="P2" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="32">
-        <v>2</v>
-      </c>
-      <c r="B3" s="22">
-        <v>0</v>
-      </c>
-      <c r="C3" s="22">
-        <v>0</v>
-      </c>
-      <c r="D3" s="22">
-        <v>0</v>
-      </c>
-      <c r="M3" s="33">
-        <v>1</v>
-      </c>
-      <c r="N3" s="30">
-        <v>0</v>
-      </c>
-      <c r="P3" s="22">
+      <c r="A3" s="26">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0</v>
+      </c>
+      <c r="C3" s="21">
+        <v>0</v>
+      </c>
+      <c r="D3" s="21">
+        <v>0</v>
+      </c>
+      <c r="M3" s="27">
+        <v>1</v>
+      </c>
+      <c r="N3" s="24">
+        <v>0</v>
+      </c>
+      <c r="P3" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="32">
+      <c r="A4" s="26">
         <v>3</v>
       </c>
-      <c r="B4" s="22">
-        <v>1</v>
-      </c>
-      <c r="C4" s="31">
+      <c r="B4" s="21">
+        <v>1</v>
+      </c>
+      <c r="C4" s="25">
         <v>3</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="30"/>
-      <c r="L4" s="22">
-        <v>1</v>
-      </c>
-      <c r="M4" s="35">
-        <v>0</v>
-      </c>
-      <c r="N4" s="34">
-        <v>1</v>
-      </c>
-      <c r="P4" s="34">
+      <c r="D4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="24"/>
+      <c r="L4" s="21">
+        <v>1</v>
+      </c>
+      <c r="M4" s="29">
+        <v>0</v>
+      </c>
+      <c r="N4" s="28">
+        <v>1</v>
+      </c>
+      <c r="P4" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
+      <c r="A5" s="26">
         <v>4</v>
       </c>
-      <c r="K5" s="22">
-        <v>1</v>
-      </c>
-      <c r="L5" s="22">
-        <v>0</v>
-      </c>
-      <c r="M5" s="36">
-        <v>1</v>
-      </c>
-      <c r="N5" s="22">
-        <v>0</v>
-      </c>
-      <c r="P5" s="35">
+      <c r="K5" s="21">
+        <v>1</v>
+      </c>
+      <c r="L5" s="21">
+        <v>0</v>
+      </c>
+      <c r="M5" s="30">
+        <v>1</v>
+      </c>
+      <c r="N5" s="21">
+        <v>0</v>
+      </c>
+      <c r="P5" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="A6" s="26">
         <v>5</v>
       </c>
-      <c r="J6" s="22">
-        <v>1</v>
-      </c>
-      <c r="K6" s="22">
-        <v>0</v>
-      </c>
-      <c r="L6" s="22">
-        <v>1</v>
-      </c>
-      <c r="M6" s="22">
-        <v>0</v>
-      </c>
-      <c r="N6" s="22">
-        <v>1</v>
-      </c>
-      <c r="P6" s="36">
+      <c r="J6" s="21">
+        <v>1</v>
+      </c>
+      <c r="K6" s="21">
+        <v>0</v>
+      </c>
+      <c r="L6" s="21">
+        <v>1</v>
+      </c>
+      <c r="M6" s="21">
+        <v>0</v>
+      </c>
+      <c r="N6" s="21">
+        <v>1</v>
+      </c>
+      <c r="P6" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="32">
+      <c r="A7" s="26">
         <v>6</v>
       </c>
-      <c r="I7" s="22">
-        <v>1</v>
-      </c>
-      <c r="J7" s="22">
-        <v>0</v>
-      </c>
-      <c r="K7" s="22">
-        <v>1</v>
-      </c>
-      <c r="L7" s="22">
-        <v>0</v>
-      </c>
-      <c r="M7" s="22">
-        <v>1</v>
-      </c>
-      <c r="N7" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="P7" s="22" t="s">
+      <c r="I7" s="21">
+        <v>1</v>
+      </c>
+      <c r="J7" s="21">
+        <v>0</v>
+      </c>
+      <c r="K7" s="21">
+        <v>1</v>
+      </c>
+      <c r="L7" s="21">
+        <v>0</v>
+      </c>
+      <c r="M7" s="21">
+        <v>1</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" s="21" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="32">
+      <c r="A8" s="26">
         <v>7</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="21">
         <v>5</v>
       </c>
-      <c r="C8" s="22">
-        <v>1</v>
-      </c>
-      <c r="D8" s="22">
+      <c r="C8" s="21">
+        <v>1</v>
+      </c>
+      <c r="D8" s="21">
         <v>9</v>
       </c>
-      <c r="H8" s="22">
-        <v>1</v>
-      </c>
-      <c r="I8" s="30">
-        <v>0</v>
-      </c>
-      <c r="J8" s="22">
-        <v>1</v>
-      </c>
-      <c r="K8" s="22">
-        <v>0</v>
-      </c>
-      <c r="L8" s="22">
-        <v>1</v>
-      </c>
-      <c r="M8" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="N8" s="22">
-        <v>1</v>
-      </c>
-      <c r="P8" s="22">
+      <c r="H8" s="21">
+        <v>1</v>
+      </c>
+      <c r="I8" s="24">
+        <v>0</v>
+      </c>
+      <c r="J8" s="21">
+        <v>1</v>
+      </c>
+      <c r="K8" s="21">
+        <v>0</v>
+      </c>
+      <c r="L8" s="21">
+        <v>1</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="21">
+        <v>1</v>
+      </c>
+      <c r="P8" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="32">
+      <c r="A9" s="26">
         <v>8</v>
       </c>
-      <c r="G9" s="22">
-        <v>1</v>
-      </c>
-      <c r="H9" s="30">
-        <v>0</v>
-      </c>
-      <c r="I9" s="22">
-        <v>1</v>
-      </c>
-      <c r="J9" s="22">
-        <v>0</v>
-      </c>
-      <c r="K9" s="22">
-        <v>1</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="M9" s="22">
-        <v>1</v>
-      </c>
-      <c r="N9" s="22">
+      <c r="G9" s="21">
+        <v>1</v>
+      </c>
+      <c r="H9" s="24">
+        <v>0</v>
+      </c>
+      <c r="I9" s="21">
+        <v>1</v>
+      </c>
+      <c r="J9" s="21">
+        <v>0</v>
+      </c>
+      <c r="K9" s="21">
+        <v>1</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" s="21">
+        <v>1</v>
+      </c>
+      <c r="N9" s="21">
         <v>9</v>
       </c>
-      <c r="P9" s="22">
+      <c r="P9" s="21">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
+      <c r="A10" s="26">
         <v>9</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="21">
         <v>6</v>
       </c>
-      <c r="C10" s="22">
-        <v>1</v>
-      </c>
-      <c r="D10" s="22" t="s">
+      <c r="C10" s="21">
+        <v>1</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="30">
-        <v>0</v>
-      </c>
-      <c r="H10" s="22">
-        <v>1</v>
-      </c>
-      <c r="I10" s="22">
-        <v>0</v>
-      </c>
-      <c r="J10" s="22">
-        <v>1</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="L10" s="22">
-        <v>1</v>
-      </c>
-      <c r="M10" s="22">
+      <c r="G10" s="24">
+        <v>0</v>
+      </c>
+      <c r="H10" s="21">
+        <v>1</v>
+      </c>
+      <c r="I10" s="21">
+        <v>0</v>
+      </c>
+      <c r="J10" s="21">
+        <v>1</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="21">
+        <v>1</v>
+      </c>
+      <c r="M10" s="21">
         <v>9</v>
       </c>
-      <c r="N10" s="22">
-        <v>0</v>
-      </c>
-      <c r="P10" s="22">
+      <c r="N10" s="21">
+        <v>0</v>
+      </c>
+      <c r="P10" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="32">
+      <c r="A11" s="26">
         <v>10</v>
       </c>
-      <c r="F11" s="30">
-        <v>0</v>
-      </c>
-      <c r="G11" s="22">
-        <v>1</v>
-      </c>
-      <c r="H11" s="22">
-        <v>0</v>
-      </c>
-      <c r="I11" s="22">
-        <v>1</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" s="22">
-        <v>1</v>
-      </c>
-      <c r="L11" s="22">
+      <c r="F11" s="24">
+        <v>0</v>
+      </c>
+      <c r="G11" s="21">
+        <v>1</v>
+      </c>
+      <c r="H11" s="21">
+        <v>0</v>
+      </c>
+      <c r="I11" s="21">
+        <v>1</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="21">
+        <v>1</v>
+      </c>
+      <c r="L11" s="21">
         <v>9</v>
       </c>
-      <c r="M11" s="22">
-        <v>0</v>
-      </c>
-      <c r="N11" s="22" t="s">
+      <c r="M11" s="21">
+        <v>0</v>
+      </c>
+      <c r="N11" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="P11" s="22" t="s">
+      <c r="P11" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="32">
+      <c r="A12" s="26">
         <v>11</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="21">
         <v>8</v>
       </c>
-      <c r="C12" s="22">
-        <v>1</v>
-      </c>
-      <c r="D12" s="22" t="s">
+      <c r="C12" s="21">
+        <v>1</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="22">
-        <v>0</v>
-      </c>
-      <c r="G12" s="30">
-        <v>1</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="22">
-        <v>1</v>
-      </c>
-      <c r="J12" s="22">
+      <c r="F12" s="21">
+        <v>0</v>
+      </c>
+      <c r="G12" s="24">
+        <v>1</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="21">
+        <v>1</v>
+      </c>
+      <c r="J12" s="21">
         <v>9</v>
       </c>
-      <c r="K12" s="22">
-        <v>0</v>
-      </c>
-      <c r="L12" s="22" t="s">
+      <c r="K12" s="21">
+        <v>0</v>
+      </c>
+      <c r="L12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="22">
-        <v>0</v>
-      </c>
-      <c r="N12" s="22" t="s">
+      <c r="M12" s="21">
+        <v>0</v>
+      </c>
+      <c r="N12" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="P12" s="22" t="s">
+      <c r="P12" s="21" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
+      <c r="A13" s="26">
         <v>12</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="21">
         <v>7</v>
       </c>
-      <c r="C13" s="22">
-        <v>1</v>
-      </c>
-      <c r="D13" s="22" t="s">
+      <c r="C13" s="21">
+        <v>1</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="30">
-        <v>1</v>
-      </c>
-      <c r="H13" s="22">
+      <c r="F13" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="24">
+        <v>1</v>
+      </c>
+      <c r="H13" s="21">
         <v>9</v>
       </c>
-      <c r="I13" s="22">
-        <v>0</v>
-      </c>
-      <c r="J13" s="22" t="s">
+      <c r="I13" s="21">
+        <v>0</v>
+      </c>
+      <c r="J13" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="22">
-        <v>0</v>
-      </c>
-      <c r="L13" s="22" t="s">
+      <c r="K13" s="21">
+        <v>0</v>
+      </c>
+      <c r="L13" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="22">
-        <v>1</v>
-      </c>
-      <c r="N13" s="22" t="s">
+      <c r="M13" s="21">
+        <v>1</v>
+      </c>
+      <c r="N13" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="P13" s="22" t="s">
+      <c r="P13" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="32">
+      <c r="A14" s="26">
         <v>13</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="21">
         <v>7</v>
       </c>
-      <c r="C14" s="22">
-        <v>1</v>
-      </c>
-      <c r="D14" s="22" t="s">
+      <c r="C14" s="21">
+        <v>1</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="21">
         <v>9</v>
       </c>
-      <c r="G14" s="22">
-        <v>0</v>
-      </c>
-      <c r="H14" s="22" t="s">
+      <c r="G14" s="21">
+        <v>0</v>
+      </c>
+      <c r="H14" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="22">
-        <v>0</v>
-      </c>
-      <c r="J14" s="22" t="s">
+      <c r="I14" s="21">
+        <v>0</v>
+      </c>
+      <c r="J14" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="22">
-        <v>1</v>
-      </c>
-      <c r="L14" s="22" t="s">
+      <c r="K14" s="21">
+        <v>1</v>
+      </c>
+      <c r="L14" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="M14" s="22">
-        <v>1</v>
-      </c>
-      <c r="N14" s="22" t="s">
+      <c r="M14" s="21">
+        <v>1</v>
+      </c>
+      <c r="N14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="P14" s="22" t="s">
+      <c r="P14" s="21" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="32">
+      <c r="A15" s="26">
         <v>14</v>
       </c>
-      <c r="B15" s="22">
-        <v>0</v>
-      </c>
-      <c r="C15" s="22">
-        <v>0</v>
-      </c>
-      <c r="D15" s="22">
+      <c r="B15" s="21">
+        <v>0</v>
+      </c>
+      <c r="C15" s="21">
+        <v>0</v>
+      </c>
+      <c r="D15" s="21">
         <v>5</v>
       </c>
-      <c r="F15" s="22">
-        <v>0</v>
-      </c>
-      <c r="G15" s="22" t="s">
+      <c r="F15" s="21">
+        <v>0</v>
+      </c>
+      <c r="G15" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="22">
-        <v>0</v>
-      </c>
-      <c r="I15" s="22" t="s">
+      <c r="H15" s="21">
+        <v>0</v>
+      </c>
+      <c r="I15" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="22">
-        <v>1</v>
-      </c>
-      <c r="K15" s="22" t="s">
+      <c r="J15" s="21">
+        <v>1</v>
+      </c>
+      <c r="K15" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="L15" s="22">
-        <v>1</v>
-      </c>
-      <c r="M15" s="22" t="s">
+      <c r="L15" s="21">
+        <v>1</v>
+      </c>
+      <c r="M15" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="N15" s="22">
+      <c r="N15" s="21">
         <v>5</v>
       </c>
-      <c r="P15" s="22">
+      <c r="P15" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="32">
+      <c r="A16" s="26">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32">
+      <c r="A17" s="26">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32">
+      <c r="A18" s="26">
         <v>17</v>
       </c>
     </row>

--- a/brainstorming.xlsx
+++ b/brainstorming.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Verilog_Project\LZ77_Encoder_Decoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3BD9E5-1417-406B-BFEA-94BD7D4DE48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5A72ED-87BA-4C16-B4AD-55763D2424CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{7DCA697A-7108-4E3B-8FE8-B9340512EA34}"/>
   </bookViews>
   <sheets>
     <sheet name="myimg_enc" sheetId="5" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="myimg_enc2" sheetId="2" r:id="rId2"/>
     <sheet name="img0_enc" sheetId="3" r:id="rId3"/>
     <sheet name="img0_dec" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -678,20 +678,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1046,18 +1046,18 @@
       <c r="P1" s="34"/>
       <c r="Q1" s="34"/>
       <c r="R1" s="34"/>
-      <c r="T1" s="38" t="s">
+      <c r="T1" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
       <c r="AD1" s="19"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
@@ -2243,27 +2243,27 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="36" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
       <c r="T4" s="2"/>
       <c r="Y4" s="2" t="s">
         <v>19</v>
@@ -2703,8 +2703,8 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
